--- a/temp/test.xlsx
+++ b/temp/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19194" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19203" uniqueCount="1802">
   <si>
     <t>No.</t>
   </si>
@@ -5411,6 +5411,12 @@
   </si>
   <si>
     <t>Bank Rakyat Indonesia Syariah</t>
+  </si>
+  <si>
+    <t>SYNIIDJAXXX</t>
+  </si>
+  <si>
+    <t>BNI SYARIAH</t>
   </si>
 </sst>
 </file>
@@ -5788,7 +5794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2133"/>
+  <dimension ref="A1:O2134"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -105995,6 +106001,53 @@
         <v>2131</v>
       </c>
     </row>
+    <row r="2134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2134">
+        <v>2132</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>858</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E2134" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2134" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2134" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2134" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2134" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2134" s="1">
+        <v>42929.43686342593</v>
+      </c>
+      <c r="L2134">
+        <v>58</v>
+      </c>
+      <c r="M2134" s="1">
+        <v>42928.853530092594</v>
+      </c>
+      <c r="N2134">
+        <v>58</v>
+      </c>
+      <c r="O2134">
+        <v>2132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
